--- a/data/testdata/vdc_vpool.xlsx
+++ b/data/testdata/vdc_vpool.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\cmp\data\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cmp\data\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB67D0EF-7D56-449D-95F4-3D91DB6F133D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1382781-5385-4FD8-8009-67D375186A8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="vdc" sheetId="1" r:id="rId1"/>
+    <sheet name="vpool" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>vdcname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +49,18 @@
   </si>
   <si>
     <t>wuz_vpool_uiauto_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建vpool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建vdc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,38 +386,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -413,4 +432,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069FAF7B-44CF-4F05-AC9C-487EA9666953}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>